--- a/3_Data Visualization and Dashboards with Excel and Cognos/w1_VisualisingDataUsingSpreadsheet/Car_Sales_Kaggle_DV0130EN_Lab1_Start.xlsx
+++ b/3_Data Visualization and Dashboards with Excel and Cognos/w1_VisualisingDataUsingSpreadsheet/Car_Sales_Kaggle_DV0130EN_Lab1_Start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravahuja/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheldonnnn/Documents/一些学习笔记/IBMDA/3_Data Visualization and Dashboards with Excel and Cognos/w1_VisualisingDataUsingSpreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635625DB-1FFF-8848-A28C-F98DD1657423}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9245F6CC-FE4D-4945-9A67-4D92EF347166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line Chart" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,36 @@
     <sheet name="Column Chart" sheetId="4" r:id="rId4"/>
     <sheet name="Car_sales" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Area Chart'!$C$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Area Chart'!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Area Chart'!$C$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Area Chart'!$C$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Area Chart'!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Area Chart'!$C$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Area Chart'!$C$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Area Chart'!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Area Chart'!$C$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
@@ -27,7 +56,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,14 +69,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -57,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="210">
   <si>
     <t>Row Labels</t>
   </si>
@@ -693,14 +727,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+  <numFmts count="4">
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,6 +880,12 @@
       <color theme="1"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1206,7 +1245,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="21" applyFont="1"/>
@@ -1215,21 +1254,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="32" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="16" fillId="12" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1271,14 +1311,218 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="42" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="117">
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1563,7 +1807,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
+      <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1582,7 +1826,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
+      <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1674,31 +1918,7 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1972,7 +2192,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
+      <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1991,7 +2211,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
+      <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2108,31 +2328,7 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2417,7 +2613,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
+      <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2436,7 +2632,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
+      <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2528,40 +2724,16 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -2591,6 +2763,4505 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Car_Sales_Kaggle_DV0130EN_Lab1_Start.xlsx]Line Chart!PivotTable4</c:name>
+    <c:fmtId val="9"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="b"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Line Chart'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Line Chart'!$A$4:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Acura</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Infiniti</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lexus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mitsubishi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nissan</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Subaru</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Toyota</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Line Chart'!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.72283075715273559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77905831386241042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66825046665535381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81091600903068206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6363812745454791</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58818618467041606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73851166641203791</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79241849164217193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E99-CA43-9565-958AD38F5CEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="b"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="988671552"/>
+        <c:axId val="1025133424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="988671552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1025133424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1025133424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="988671552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Car_Sales_Kaggle_DV0130EN_Lab1_Start.xlsx]Bar Chart!PivotTable4</c:name>
+    <c:fmtId val="8"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bar Chart'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Year Resale Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Bar Chart'!$A$4:$A$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4Runner</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Avalon</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Camry</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Celica</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Corolla</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Land Cruiser</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>RAV4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Sienna</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Tacoma</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Toyota</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Chart'!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34080</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13325</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18689</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A30-404C-99DB-0A6E7862C1EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bar Chart'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Bar Chart'!$A$4:$A$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4Runner</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Avalon</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Camry</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Celica</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Corolla</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Land Cruiser</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>RAV4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Sienna</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Tacoma</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Toyota</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Chart'!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>22288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17518</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A30-404C-99DB-0A6E7862C1EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1024479088"/>
+        <c:axId val="1024480816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1024479088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024480816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1024480816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024479088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Area Chart'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unit Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Area Chart'!$B$2:$B$156</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4Runner</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avalon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Celica</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Corolla</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Land Cruiser</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RAV4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sienna</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tacoma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Area Chart'!$C$2:$C$156</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>68411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>247994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09A8-DF4A-B19C-36BCF8EE64A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="265683808"/>
+        <c:axId val="265692400"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="265683808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265692400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="265692400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265683808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent4"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Power Perf Factor of Toyota Car</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Chart'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Power Perf Factor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Column Chart'!$B$2:$B$156</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Corolla</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camry</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Avalon</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Celica</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tacoma</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sienna</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RAV4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4Runner</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Land Cruiser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Chart'!$C$2:$C$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>47.96897242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.372419649999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.911898260000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.496030339999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.297116580000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.027219470000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.955108869999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.35557713</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102.5289842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DB7-1F42-AD02-9B9852E6AC6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="256280544"/>
+        <c:axId val="256282816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="256280544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256282816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="256282816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256280544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09CC8E7-498F-6C86-144A-2476DA9F20B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C47319-5559-B882-9161-053513BE6B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6787CCAC-746B-DF42-D001-15D0B615F1E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D4F0944-609D-BD92-4283-2D2274DEA759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2956,7 +7627,7 @@
         <n v="18969"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Price" numFmtId="165">
+    <cacheField name="Price" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9235" maxValue="85500" count="152">
         <n v="21500"/>
         <n v="28400"/>
@@ -3112,7 +7783,7 @@
         <n v="36000"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Year Resale Value" numFmtId="165">
+    <cacheField name="Year Resale Value" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5160" maxValue="67550"/>
     </cacheField>
     <cacheField name="Retention %" numFmtId="9">
@@ -6428,8 +11099,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{182C1C5B-8C6C-B246-8E48-30DE7D65BF6A}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A3:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{182C1C5B-8C6C-B246-8E48-30DE7D65BF6A}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" showAll="0">
       <items count="155">
@@ -6593,35 +11264,35 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="31">
         <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
+        <item h="1" sd="0" x="1"/>
+        <item h="1" sd="0" x="2"/>
+        <item h="1" sd="0" x="3"/>
+        <item h="1" sd="0" x="4"/>
+        <item h="1" sd="0" x="5"/>
+        <item h="1" sd="0" x="6"/>
+        <item h="1" sd="0" x="7"/>
+        <item h="1" sd="0" x="8"/>
         <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
+        <item h="1" sd="0" x="10"/>
         <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
+        <item h="1" sd="0" x="12"/>
+        <item h="1" sd="0" x="13"/>
         <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="17"/>
+        <item h="1" sd="0" x="15"/>
+        <item h="1" sd="0" x="18"/>
+        <item h="1" sd="0" x="17"/>
         <item sd="0" x="16"/>
         <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
+        <item h="1" sd="0" x="20"/>
+        <item h="1" sd="0" x="21"/>
+        <item h="1" sd="0" x="22"/>
+        <item h="1" sd="0" x="23"/>
+        <item h="1" sd="0" x="24"/>
+        <item h="1" sd="0" x="25"/>
         <item sd="0" x="26"/>
         <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
+        <item h="1" sd="0" x="28"/>
+        <item h="1" sd="0" x="29"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
@@ -6792,7 +11463,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="165" showAll="0">
+    <pivotField numFmtId="166" showAll="0">
       <items count="153">
         <item x="25"/>
         <item x="59"/>
@@ -6949,7 +11620,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
     <pivotField dataField="1" numFmtId="9" showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
@@ -6975,60 +11646,18 @@
     <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="31">
+  <rowItems count="9">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
     </i>
     <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="10"/>
-    </i>
-    <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
       <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
     </i>
     <i>
       <x v="18"/>
@@ -7037,34 +11666,10 @@
       <x v="19"/>
     </i>
     <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
       <x v="26"/>
     </i>
     <i>
       <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
     </i>
     <i t="grand">
       <x/>
@@ -7077,7 +11682,7 @@
     <dataField name="Average of Retention %" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="72">
+    <format dxfId="116">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -7089,14 +11694,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="115">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="3">
+  <chartFormats count="4">
     <chartFormat chart="6" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -7124,6 +11729,15 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7138,8 +11752,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{191ED8E3-C620-497D-9A41-5CFFDA72B39C}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A3:C34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{191ED8E3-C620-497D-9A41-5CFFDA72B39C}" name="PivotTable4" cacheId="1" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" showAll="0">
       <items count="155">
@@ -7302,36 +11916,36 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="31">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
+        <item h="1" sd="0" x="0"/>
+        <item h="1" sd="0" x="1"/>
+        <item h="1" sd="0" x="2"/>
+        <item h="1" sd="0" x="3"/>
+        <item h="1" sd="0" x="4"/>
+        <item h="1" sd="0" x="5"/>
+        <item h="1" sd="0" x="6"/>
+        <item h="1" sd="0" x="7"/>
+        <item h="1" sd="0" x="8"/>
+        <item h="1" sd="0" x="9"/>
+        <item h="1" sd="0" x="10"/>
+        <item h="1" sd="0" x="11"/>
+        <item h="1" sd="0" x="12"/>
+        <item h="1" sd="0" x="13"/>
+        <item h="1" sd="0" x="14"/>
+        <item h="1" sd="0" x="15"/>
+        <item h="1" sd="0" x="18"/>
+        <item h="1" sd="0" x="17"/>
+        <item h="1" sd="0" x="16"/>
+        <item h="1" sd="0" x="19"/>
+        <item h="1" sd="0" x="20"/>
+        <item h="1" sd="0" x="21"/>
+        <item h="1" sd="0" x="22"/>
+        <item h="1" sd="0" x="23"/>
+        <item h="1" sd="0" x="24"/>
+        <item h="1" sd="0" x="25"/>
+        <item h="1" sd="0" x="26"/>
+        <item x="27"/>
+        <item h="1" sd="0" x="28"/>
+        <item h="1" sd="0" x="29"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
@@ -7502,7 +12116,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="165" showAll="0">
+    <pivotField dataField="1" numFmtId="166" showAll="0">
       <items count="153">
         <item x="25"/>
         <item x="59"/>
@@ -7659,7 +12273,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
     <pivotField numFmtId="9" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -7679,96 +12293,36 @@
     <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="31">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
+  <rowItems count="11">
     <i>
       <x v="27"/>
     </i>
-    <i>
-      <x v="28"/>
+    <i r="1">
+      <x v="4"/>
     </i>
-    <i>
-      <x v="29"/>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="82"/>
+    </i>
+    <i r="1">
+      <x v="117"/>
+    </i>
+    <i r="1">
+      <x v="131"/>
+    </i>
+    <i r="1">
+      <x v="142"/>
     </i>
     <i t="grand">
       <x/>
@@ -7786,11 +12340,11 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Average of Year Resale Value" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="167"/>
-    <dataField name="Average of Price" fld="4" subtotal="average" baseField="0" baseItem="78" numFmtId="167"/>
+    <dataField name="Average of Year Resale Value" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="Average of Price" fld="4" subtotal="average" baseField="0" baseItem="78" numFmtId="168"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="69">
+    <format dxfId="113">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7799,7 +12353,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7808,7 +12362,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="111">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7817,7 +12371,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7827,7 +12381,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="2">
+  <chartFormats count="11">
     <chartFormat chart="6" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -7846,6 +12400,129 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="26"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="33"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="43"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="82"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="117"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="131"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="142"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7860,105 +12537,117 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D2600A8-6634-4642-AAD2-0860E46FD306}" name="Table14" displayName="Table14" ref="A1:S156" totalsRowShown="0" headerRowDxfId="63" headerRowCellStyle="60% - Accent1">
-  <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D2600A8-6634-4642-AAD2-0860E46FD306}" name="Table14" displayName="Table14" ref="A1:S156" totalsRowShown="0" headerRowDxfId="109" headerRowCellStyle="60% - Accent1">
+  <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Toyota"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N156">
     <sortCondition ref="B1:B156"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{CCFD9DCD-33DA-4C1C-B39D-1F8C0CA940C0}" name="Manufacturer" dataDxfId="62" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{91732ACF-B59B-4736-A06E-BE7ADB4669C2}" name="Model" dataDxfId="61" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{AC38EB39-9FE7-4815-9A95-BD4739621249}" name="Unit Sales" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{48155666-2FFE-4435-98FA-77A71F62A4CD}" name="Price" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{E6C9B305-43C4-4AA9-AF99-52F226A2A489}" name="Year Resale Value" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{53AB75B2-B4C7-4B08-A310-E333B5D08F1E}" name="Retention %" dataDxfId="57" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{CCFD9DCD-33DA-4C1C-B39D-1F8C0CA940C0}" name="Manufacturer" dataDxfId="108" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{91732ACF-B59B-4736-A06E-BE7ADB4669C2}" name="Model" dataDxfId="107" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{AC38EB39-9FE7-4815-9A95-BD4739621249}" name="Unit Sales" dataDxfId="106"/>
+    <tableColumn id="5" xr3:uid="{48155666-2FFE-4435-98FA-77A71F62A4CD}" name="Price" dataDxfId="105"/>
+    <tableColumn id="6" xr3:uid="{E6C9B305-43C4-4AA9-AF99-52F226A2A489}" name="Year Resale Value" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{53AB75B2-B4C7-4B08-A310-E333B5D08F1E}" name="Retention %" dataDxfId="103">
       <calculatedColumnFormula>SUM(E2/D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14C0ED08-C800-44FC-AEFF-AD4CB3BA4CE3}" name="Retention Value" dataDxfId="56" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{14C0ED08-C800-44FC-AEFF-AD4CB3BA4CE3}" name="Retention Value" dataDxfId="102">
       <calculatedColumnFormula>IF(F2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2D1C7A45-6CF4-4F66-812C-40A50CEEFE3C}" name="Engine Size" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{6F868495-C5F3-4EB0-A931-7DB5EE263B04}" name="Horsepower" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{21D8283C-331B-4FBC-ADCB-511EC8FEEA5B}" name="HP Level" dataDxfId="53">
+    <tableColumn id="9" xr3:uid="{2D1C7A45-6CF4-4F66-812C-40A50CEEFE3C}" name="Engine Size" dataDxfId="101"/>
+    <tableColumn id="10" xr3:uid="{6F868495-C5F3-4EB0-A931-7DB5EE263B04}" name="Horsepower" dataDxfId="100"/>
+    <tableColumn id="11" xr3:uid="{21D8283C-331B-4FBC-ADCB-511EC8FEEA5B}" name="HP Level" dataDxfId="99">
       <calculatedColumnFormula array="1">_xlfn.IFS(I2&gt;299,"High HP",I2&gt;99,"Medium HP",I2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D8DD2294-3DBB-4222-BDE1-25B41E8C6E23}" name="Vehicle_type" dataDxfId="52"/>
-    <tableColumn id="17" xr3:uid="{41974CDD-17C2-4811-8CA1-4FE62EF36874}" name="Fuel Efficiency" dataDxfId="51"/>
-    <tableColumn id="19" xr3:uid="{FF974689-EC10-4BD7-931E-F6D2FC8A04BB}" name="Power Perf Factor" dataDxfId="50"/>
-    <tableColumn id="16" xr3:uid="{A47D6D7B-55BF-4939-8425-7A7DC0E408AE}" name="Fuel Capacity" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{59E0B2CA-E73A-4CDD-A62F-F1A4C75E90F7}" name="Wheelbase" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{1318511A-327E-4603-9CFA-8A67BC21BEB8}" name="Width" dataDxfId="47"/>
-    <tableColumn id="14" xr3:uid="{B48108FE-8EF4-43AB-ACEA-F7B30A9D3C55}" name="Length" dataDxfId="46"/>
-    <tableColumn id="15" xr3:uid="{1C70CD07-6AE4-4D29-95C6-1D02DF8772F3}" name="Curb Weight" dataDxfId="45"/>
-    <tableColumn id="18" xr3:uid="{801588FA-173B-403F-BAF7-D1F66FFF62EA}" name="Latest Launch" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{D8DD2294-3DBB-4222-BDE1-25B41E8C6E23}" name="Vehicle_type" dataDxfId="98"/>
+    <tableColumn id="17" xr3:uid="{41974CDD-17C2-4811-8CA1-4FE62EF36874}" name="Fuel Efficiency" dataDxfId="97"/>
+    <tableColumn id="19" xr3:uid="{FF974689-EC10-4BD7-931E-F6D2FC8A04BB}" name="Power Perf Factor" dataDxfId="96"/>
+    <tableColumn id="16" xr3:uid="{A47D6D7B-55BF-4939-8425-7A7DC0E408AE}" name="Fuel Capacity" dataDxfId="95"/>
+    <tableColumn id="12" xr3:uid="{59E0B2CA-E73A-4CDD-A62F-F1A4C75E90F7}" name="Wheelbase" dataDxfId="94"/>
+    <tableColumn id="13" xr3:uid="{1318511A-327E-4603-9CFA-8A67BC21BEB8}" name="Width" dataDxfId="93"/>
+    <tableColumn id="14" xr3:uid="{B48108FE-8EF4-43AB-ACEA-F7B30A9D3C55}" name="Length" dataDxfId="92"/>
+    <tableColumn id="15" xr3:uid="{1C70CD07-6AE4-4D29-95C6-1D02DF8772F3}" name="Curb Weight" dataDxfId="91"/>
+    <tableColumn id="18" xr3:uid="{801588FA-173B-403F-BAF7-D1F66FFF62EA}" name="Latest Launch" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9BA20E7-01BD-4CE5-A39A-A378DD819ED1}" name="Table15" displayName="Table15" ref="A1:S156" totalsRowShown="0" headerRowDxfId="41" headerRowCellStyle="60% - Accent1">
-  <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9BA20E7-01BD-4CE5-A39A-A378DD819ED1}" name="Table15" displayName="Table15" ref="A1:S156" totalsRowShown="0" headerRowDxfId="89" headerRowCellStyle="60% - Accent1">
+  <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Toyota"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{5BFF9CA1-D18F-48F8-B139-C94FCAB0E175}" name="Manufacturer" dataDxfId="40" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{43B3A4A3-6CC5-4B1F-9BA5-697A4F09A487}" name="Model" dataDxfId="39" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="19" xr3:uid="{5B90FD03-F436-4395-9630-5BC3AE66755A}" name="Power Perf Factor" dataDxfId="38" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{2F98F040-7842-4713-AEFE-12CD948B81ED}" name="Unit Sales" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{6A58B398-9B8D-495F-8939-B398B67C09F9}" name="Price" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{CFBD5404-82BE-457B-8590-AD11A6B7EF8F}" name="Year Resale Value" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{7684E2FD-1B7C-4F58-8E02-AB765C88FB13}" name="Retention %" dataDxfId="34" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{5BFF9CA1-D18F-48F8-B139-C94FCAB0E175}" name="Manufacturer" dataDxfId="88" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{43B3A4A3-6CC5-4B1F-9BA5-697A4F09A487}" name="Model" dataDxfId="87" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="19" xr3:uid="{5B90FD03-F436-4395-9630-5BC3AE66755A}" name="Power Perf Factor" dataDxfId="86" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{2F98F040-7842-4713-AEFE-12CD948B81ED}" name="Unit Sales" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{6A58B398-9B8D-495F-8939-B398B67C09F9}" name="Price" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{CFBD5404-82BE-457B-8590-AD11A6B7EF8F}" name="Year Resale Value" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{7684E2FD-1B7C-4F58-8E02-AB765C88FB13}" name="Retention %" dataDxfId="82">
       <calculatedColumnFormula>SUM(F2/E2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4F26BE56-C2D9-44F3-86FD-D2945E0358C0}" name="Retention Value" dataDxfId="33" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{4F26BE56-C2D9-44F3-86FD-D2945E0358C0}" name="Retention Value" dataDxfId="81">
       <calculatedColumnFormula>IF(G2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E2821A61-E719-4923-891A-BCFDE42F66D0}" name="Engine Size" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{16623E42-D7B5-47C4-B7B5-265380D2ACB5}" name="Horsepower" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{D6BC5B95-B4B5-4D2C-B442-659931E923AB}" name="HP Level" dataDxfId="30">
+    <tableColumn id="9" xr3:uid="{E2821A61-E719-4923-891A-BCFDE42F66D0}" name="Engine Size" dataDxfId="80"/>
+    <tableColumn id="10" xr3:uid="{16623E42-D7B5-47C4-B7B5-265380D2ACB5}" name="Horsepower" dataDxfId="79"/>
+    <tableColumn id="11" xr3:uid="{D6BC5B95-B4B5-4D2C-B442-659931E923AB}" name="HP Level" dataDxfId="78">
       <calculatedColumnFormula array="1">_xlfn.IFS(J2&gt;299,"High HP",J2&gt;99,"Medium HP",J2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D89FC93A-602D-4147-B5D8-052BD3AAEFA9}" name="Vehicle_type" dataDxfId="29"/>
-    <tableColumn id="17" xr3:uid="{09BC724F-FE73-4569-B3C5-F0F8A6DB4C85}" name="Fuel Efficiency" dataDxfId="28" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="12" xr3:uid="{55924A29-F156-4CD0-8425-CED32C98068B}" name="Wheelbase" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{56DEB4B4-962C-464A-8CF0-5AF892D29D15}" name="Width" dataDxfId="26"/>
-    <tableColumn id="14" xr3:uid="{1EDAA041-E793-4BBE-B154-A3806B225DA4}" name="Length" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{8B517A00-9F46-45B8-851E-0C41E81C7F5A}" name="Curb Weight" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{C0D2D5B9-1522-4D17-A522-05AF3FA10469}" name="Fuel Capacity" dataDxfId="23"/>
-    <tableColumn id="18" xr3:uid="{8890314F-1652-4E10-ABA4-284B9415484A}" name="Latest Launch" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{D89FC93A-602D-4147-B5D8-052BD3AAEFA9}" name="Vehicle_type" dataDxfId="77"/>
+    <tableColumn id="17" xr3:uid="{09BC724F-FE73-4569-B3C5-F0F8A6DB4C85}" name="Fuel Efficiency" dataDxfId="76" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="12" xr3:uid="{55924A29-F156-4CD0-8425-CED32C98068B}" name="Wheelbase" dataDxfId="75"/>
+    <tableColumn id="13" xr3:uid="{56DEB4B4-962C-464A-8CF0-5AF892D29D15}" name="Width" dataDxfId="74"/>
+    <tableColumn id="14" xr3:uid="{1EDAA041-E793-4BBE-B154-A3806B225DA4}" name="Length" dataDxfId="73"/>
+    <tableColumn id="15" xr3:uid="{8B517A00-9F46-45B8-851E-0C41E81C7F5A}" name="Curb Weight" dataDxfId="72"/>
+    <tableColumn id="16" xr3:uid="{C0D2D5B9-1522-4D17-A522-05AF3FA10469}" name="Fuel Capacity" dataDxfId="71"/>
+    <tableColumn id="18" xr3:uid="{8890314F-1652-4E10-ABA4-284B9415484A}" name="Latest Launch" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597DCCBB-1D00-4B74-A561-F0C0BDE98FA1}" name="Table1" displayName="Table1" ref="A1:S156" totalsRowShown="0" headerRowDxfId="19" headerRowCellStyle="60% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597DCCBB-1D00-4B74-A561-F0C0BDE98FA1}" name="Table1" displayName="Table1" ref="A1:S156" totalsRowShown="0" headerRowDxfId="69" headerRowCellStyle="60% - Accent1">
   <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}"/>
   <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{0090DD31-AAEF-418B-A6D5-5A47F973884A}" name="Manufacturer" dataDxfId="18" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{1D457C4B-D2B8-4760-9FBD-20980339C812}" name="Model" dataDxfId="17" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{8522711B-6353-4D72-9921-4036DEB24699}" name="Unit Sales" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{3F2EFF05-CEC1-43C4-8457-EC0A04BFE37D}" name="Price" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{D0C7E9A3-6A78-4834-995F-71A07F7E5FEC}" name="Year Resale Value" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{2892AE5C-2583-41F9-9297-9EA4C2895B5F}" name="Retention %" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{0090DD31-AAEF-418B-A6D5-5A47F973884A}" name="Manufacturer" dataDxfId="68" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{1D457C4B-D2B8-4760-9FBD-20980339C812}" name="Model" dataDxfId="67" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{8522711B-6353-4D72-9921-4036DEB24699}" name="Unit Sales" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{3F2EFF05-CEC1-43C4-8457-EC0A04BFE37D}" name="Price" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{D0C7E9A3-6A78-4834-995F-71A07F7E5FEC}" name="Year Resale Value" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{2892AE5C-2583-41F9-9297-9EA4C2895B5F}" name="Retention %" dataDxfId="63">
       <calculatedColumnFormula>SUM(E2/D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{40A7E790-705B-474C-BD5E-B93CFDEAAD37}" name="Retention Value" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{40A7E790-705B-474C-BD5E-B93CFDEAAD37}" name="Retention Value" dataDxfId="62">
       <calculatedColumnFormula>IF(F2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9FD1D782-0EB9-4AC8-9FB6-1F5437BC6100}" name="Engine Size" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{97F7DE8D-9589-426B-AA4F-2E3F8BB7A81B}" name="Horsepower" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{4CB9C68E-A6F1-497A-9877-E41495059145}" name="HP Level" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{9FD1D782-0EB9-4AC8-9FB6-1F5437BC6100}" name="Engine Size" dataDxfId="61"/>
+    <tableColumn id="10" xr3:uid="{97F7DE8D-9589-426B-AA4F-2E3F8BB7A81B}" name="Horsepower" dataDxfId="60"/>
+    <tableColumn id="11" xr3:uid="{4CB9C68E-A6F1-497A-9877-E41495059145}" name="HP Level" dataDxfId="59">
       <calculatedColumnFormula array="1">_xlfn.IFS(I2&gt;299,"High HP",I2&gt;99,"Medium HP",I2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3733B2DD-D65D-439A-9EC2-28F65DC369D7}" name="Vehicle_type" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{5136D0F0-2F8F-4D70-995F-CE39B1996127}" name="Fuel Efficiency" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{5F133F36-F1C6-453A-A10C-A9917A623804}" name="Power Perf Factor" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{6E551230-1170-40DA-8649-BDDA922271D8}" name="Wheelbase" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{53A36FF3-E823-43B4-958B-9E02EC2B56F7}" name="Width" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{0728B768-EB40-4E54-9F8B-8FC310D3272C}" name="Length" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{2264EB11-0818-4B2A-A027-42B066FA9869}" name="Curb Weight" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{58B24934-BE7E-4FBD-9F96-CEF0725C6117}" name="Fuel Capacity" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{00FF364F-DDBE-4E2C-8F3E-DBDA321FA22A}" name="Latest Launch" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{3733B2DD-D65D-439A-9EC2-28F65DC369D7}" name="Vehicle_type" dataDxfId="58"/>
+    <tableColumn id="17" xr3:uid="{5136D0F0-2F8F-4D70-995F-CE39B1996127}" name="Fuel Efficiency" dataDxfId="57"/>
+    <tableColumn id="19" xr3:uid="{5F133F36-F1C6-453A-A10C-A9917A623804}" name="Power Perf Factor" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{6E551230-1170-40DA-8649-BDDA922271D8}" name="Wheelbase" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{53A36FF3-E823-43B4-958B-9E02EC2B56F7}" name="Width" dataDxfId="54"/>
+    <tableColumn id="14" xr3:uid="{0728B768-EB40-4E54-9F8B-8FC310D3272C}" name="Length" dataDxfId="53"/>
+    <tableColumn id="15" xr3:uid="{2264EB11-0818-4B2A-A027-42B066FA9869}" name="Curb Weight" dataDxfId="52"/>
+    <tableColumn id="16" xr3:uid="{58B24934-BE7E-4FBD-9F96-CEF0725C6117}" name="Fuel Capacity" dataDxfId="51"/>
+    <tableColumn id="18" xr3:uid="{00FF364F-DDBE-4E2C-8F3E-DBDA321FA22A}" name="Latest Launch" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8263,14 +12952,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6CD20E-85BF-DD42-9BB1-E7FFA14C0980}">
   <dimension ref="A3:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
@@ -8282,681 +12971,433 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>0.72283075715273559</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="18">
-        <v>0.75017496343463141</v>
+      <c r="A5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.77905831386241042</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="18">
-        <v>0.89831326065008865</v>
+      <c r="A6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.66825046665535381</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="18">
-        <v>0.55537813446542739</v>
+      <c r="A7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.81091600903068206</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="18">
-        <v>0.61722828360562432</v>
+      <c r="A8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0.6363812745454791</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="18">
-        <v>0.61398662152068761</v>
+      <c r="A9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0.58818618467041606</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="18">
-        <v>0.63808410014071748</v>
+      <c r="A10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0.73851166641203791</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="18">
-        <v>0.6796460302270696</v>
+      <c r="A11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0.79241849164217193</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18">
-        <v>0.60292248413258964</v>
+      <c r="A12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0.71945730834311494</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18">
-        <v>0.77905831386241053</v>
-      </c>
+      <c r="B13"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="18">
-        <v>0.62047246570387882</v>
-      </c>
+      <c r="B14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="18">
-        <v>0.66825046665535381</v>
-      </c>
+      <c r="B15"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="18">
-        <v>0.77614485981308412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="18">
-        <v>0.75613636328610434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="18">
-        <v>0.81091600903068206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="18">
-        <v>0.50444839109240924</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="18">
-        <v>0.76365249235079324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="18">
-        <v>0.66961809678652795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="18">
-        <v>0.63638127454547899</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="18">
-        <v>0.58818618467041606</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="18">
-        <v>0.62260326868233029</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="18">
-        <v>0.64207103101350915</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="18">
-        <v>0.6035529991311378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="18">
-        <v>0.91677172640888882</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="18">
-        <v>0.6937494794269532</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="18">
-        <v>0.76957152312403621</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="18">
-        <v>0.73851166641203791</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="18">
-        <v>0.79241849164217204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="18">
-        <v>0.78629912727522022</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="18">
-        <v>0.68527031080258538</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="18">
-        <v>0.68738229973802756</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D1CA60-5813-4297-83D8-6BD86D0F61FA}">
-  <dimension ref="A3:F37"/>
+  <dimension ref="A3:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="135" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="135" width="6" bestFit="1" customWidth="1"/>
     <col min="136" max="156" width="7" bestFit="1" customWidth="1"/>
     <col min="157" max="157" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="19">
-        <v>21986.666666666668</v>
-      </c>
-      <c r="C4" s="19">
-        <v>30633.333333333332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19">
-        <v>28270</v>
-      </c>
-      <c r="C5" s="19">
-        <v>39980</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="19">
-        <v>29766.666666666668</v>
-      </c>
-      <c r="C6" s="19">
-        <v>33096.666666666664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="19">
-        <v>14941.25</v>
-      </c>
-      <c r="C7" s="19">
-        <v>26781.25</v>
-      </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="19">
-        <v>24964</v>
-      </c>
-      <c r="C8" s="19">
-        <v>40254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="19">
-        <v>13043.888888888889</v>
-      </c>
-      <c r="C9" s="19">
-        <v>21133.888888888891</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19">
-        <v>14775.833333333334</v>
-      </c>
-      <c r="C10" s="19">
-        <v>23430.833333333332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="19">
-        <v>17267.363636363636</v>
-      </c>
-      <c r="C11" s="19">
-        <v>24213.636363636364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="19">
-        <v>12570</v>
-      </c>
-      <c r="C12" s="19">
-        <v>21047.272727272728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="19">
-        <v>15557</v>
-      </c>
-      <c r="C13" s="19">
-        <v>20277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="19">
-        <v>7531.666666666667</v>
-      </c>
-      <c r="C14" s="19">
-        <v>12165.666666666666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="19">
-        <v>19690</v>
-      </c>
-      <c r="C15" s="19">
-        <v>29465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="19">
-        <v>33219</v>
-      </c>
-      <c r="C16" s="19">
-        <v>42800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="19">
-        <v>15353.333333333334</v>
-      </c>
-      <c r="C17" s="19">
-        <v>20991.666666666668</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="19">
-        <v>35231.666666666664</v>
-      </c>
-      <c r="C18" s="19">
-        <v>44055</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="19">
-        <v>21005</v>
-      </c>
-      <c r="C19" s="19">
-        <v>41690</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="19">
-        <v>39876.555555555555</v>
-      </c>
-      <c r="C20" s="19">
-        <v>52916.666666666664</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="19">
-        <v>13970</v>
-      </c>
-      <c r="C21" s="19">
-        <v>20748.333333333332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="19">
-        <v>14262.142857142857</v>
-      </c>
-      <c r="C22" s="19">
-        <v>22167.428571428572</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="19">
-        <v>13117.571428571429</v>
-      </c>
-      <c r="C23" s="19">
-        <v>22360.714285714286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="19">
-        <v>15809</v>
-      </c>
-      <c r="C24" s="19">
-        <v>25622.833333333332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="19">
-        <v>15002.25</v>
-      </c>
-      <c r="C25" s="19">
-        <v>22642.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="19">
-        <v>13889.166666666666</v>
-      </c>
-      <c r="C26" s="19">
-        <v>22949.166666666668</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="19">
-        <v>56475</v>
-      </c>
-      <c r="C27" s="19">
-        <v>62473.333333333336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="19">
-        <v>20522</v>
-      </c>
-      <c r="C28" s="19">
-        <v>29610</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="19">
-        <v>10836</v>
-      </c>
-      <c r="C29" s="19">
-        <v>14271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="19">
-        <v>15801</v>
-      </c>
-      <c r="C30" s="19">
-        <v>21395</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B4" s="18">
         <v>16883.222222222223</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C4" s="18">
         <v>21982.888888888891</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="19">
-        <v>13951.833333333334</v>
-      </c>
-      <c r="C32" s="19">
-        <v>17698.333333333332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="19">
-        <v>21547.833333333332</v>
-      </c>
-      <c r="C33" s="19">
-        <v>30933.333333333332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="18">
+        <v>19425</v>
+      </c>
+      <c r="C5" s="18">
+        <v>22288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="18">
+        <v>18140</v>
+      </c>
+      <c r="C6" s="18">
+        <v>25545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="18">
+        <v>13245</v>
+      </c>
+      <c r="C7" s="18">
+        <v>17518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="18">
+        <v>15445</v>
+      </c>
+      <c r="C8" s="18">
+        <v>16875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="18">
+        <v>10025</v>
+      </c>
+      <c r="C9" s="18">
+        <v>13108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="18">
+        <v>34080</v>
+      </c>
+      <c r="C10" s="18">
+        <v>51728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="18">
+        <v>13325</v>
+      </c>
+      <c r="C11" s="18">
+        <v>16888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="18">
+        <v>18689</v>
+      </c>
+      <c r="C12" s="18">
+        <v>22368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="18">
+        <v>9575</v>
+      </c>
+      <c r="C13" s="18">
+        <v>11528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="19">
-        <v>19138.277419354839</v>
-      </c>
-      <c r="C34" s="19">
-        <v>27455.270967741937</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="18">
+        <v>16883.222222222223</v>
+      </c>
+      <c r="C14" s="18">
+        <v>21982.888888888891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30"/>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31"/>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33"/>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34"/>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8965,7 +13406,7 @@
   <dimension ref="A1:Z156"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9055,7 +13496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -9117,7 +13558,7 @@
         <v>40941</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9179,7 +13620,7 @@
         <v>40697</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -9241,7 +13682,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -9305,7 +13746,7 @@
       <c r="U5" s="1"/>
       <c r="W5" s="13"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -9368,7 +13809,7 @@
       </c>
       <c r="W6" s="13"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -9431,7 +13872,7 @@
       </c>
       <c r="W7" s="13"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -9494,7 +13935,7 @@
       </c>
       <c r="W8" s="13"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -9557,7 +13998,7 @@
       </c>
       <c r="W9" s="13"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -9620,7 +14061,7 @@
       </c>
       <c r="W10" s="13"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -9683,7 +14124,7 @@
       </c>
       <c r="W11" s="13"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -9746,7 +14187,7 @@
       </c>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -9809,7 +14250,7 @@
       </c>
       <c r="W13" s="13"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -9871,7 +14312,7 @@
         <v>40747</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -9933,7 +14374,7 @@
         <v>40962</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -9996,7 +14437,7 @@
       </c>
       <c r="V16" s="13"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -10058,7 +14499,7 @@
         <v>40874</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -10120,7 +14561,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -10182,7 +14623,7 @@
         <v>41016</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -10244,7 +14685,7 @@
         <v>40772</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -10307,11 +14748,8 @@
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -10376,7 +14814,7 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -10438,7 +14876,7 @@
         <v>40899</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -10500,7 +14938,7 @@
         <v>40839</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -10562,7 +15000,7 @@
         <v>41041</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -10624,7 +15062,7 @@
         <v>40797</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -10686,7 +15124,7 @@
         <v>41012</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -10748,7 +15186,7 @@
         <v>40712</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -10810,7 +15248,7 @@
         <v>40924</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -10872,7 +15310,7 @@
         <v>40864</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -10934,7 +15372,7 @@
         <v>41066</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -10996,7 +15434,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -11058,7 +15496,7 @@
         <v>41037</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -11120,7 +15558,7 @@
         <v>40949</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -11182,7 +15620,7 @@
         <v>40889</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>9</v>
       </c>
@@ -11244,7 +15682,7 @@
         <v>41091</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
@@ -11306,7 +15744,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
@@ -11368,7 +15806,7 @@
         <v>41062</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
@@ -11430,7 +15868,7 @@
         <v>40762</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
@@ -11492,7 +15930,7 @@
         <v>40974</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>9</v>
       </c>
@@ -11554,7 +15992,7 @@
         <v>40914</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
@@ -11616,7 +16054,7 @@
         <v>41116</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>9</v>
       </c>
@@ -11678,7 +16116,7 @@
         <v>40872</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
@@ -11740,7 +16178,7 @@
         <v>41087</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>9</v>
       </c>
@@ -11802,7 +16240,7 @@
         <v>40787</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
@@ -11864,7 +16302,7 @@
         <v>40999</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
@@ -11926,7 +16364,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>10</v>
       </c>
@@ -11988,7 +16426,7 @@
         <v>41141</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
@@ -12050,7 +16488,7 @@
         <v>40897</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
@@ -12112,7 +16550,7 @@
         <v>41112</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
@@ -12174,7 +16612,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>10</v>
       </c>
@@ -12236,7 +16674,7 @@
         <v>41024</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>10</v>
       </c>
@@ -12298,7 +16736,7 @@
         <v>40964</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>10</v>
       </c>
@@ -12360,7 +16798,7 @@
         <v>41166</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>10</v>
       </c>
@@ -12422,7 +16860,7 @@
         <v>40922</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>10</v>
       </c>
@@ -12484,7 +16922,7 @@
         <v>41137</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>11</v>
       </c>
@@ -12546,7 +16984,7 @@
         <v>40837</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>11</v>
       </c>
@@ -12608,7 +17046,7 @@
         <v>41049</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>11</v>
       </c>
@@ -12670,7 +17108,7 @@
         <v>40989</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>11</v>
       </c>
@@ -12732,7 +17170,7 @@
         <v>41191</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>11</v>
       </c>
@@ -12794,7 +17232,7 @@
         <v>40947</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>12</v>
       </c>
@@ -12856,7 +17294,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
@@ -12918,7 +17356,7 @@
         <v>40862</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>12</v>
       </c>
@@ -12980,7 +17418,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>13</v>
       </c>
@@ -13042,7 +17480,7 @@
         <v>41014</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>14</v>
       </c>
@@ -13104,7 +17542,7 @@
         <v>41216</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>15</v>
       </c>
@@ -13166,7 +17604,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>15</v>
       </c>
@@ -13228,7 +17666,7 @@
         <v>41187</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
@@ -13290,7 +17728,7 @@
         <v>40887</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>16</v>
       </c>
@@ -13352,7 +17790,7 @@
         <v>41099</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>16</v>
       </c>
@@ -13414,7 +17852,7 @@
         <v>41039</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>16</v>
       </c>
@@ -13476,7 +17914,7 @@
         <v>41241</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>16</v>
       </c>
@@ -13538,7 +17976,7 @@
         <v>40997</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>16</v>
       </c>
@@ -13600,7 +18038,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>16</v>
       </c>
@@ -13662,7 +18100,7 @@
         <v>40912</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>17</v>
       </c>
@@ -13724,7 +18162,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>17</v>
       </c>
@@ -13786,7 +18224,7 @@
         <v>41064</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>17</v>
       </c>
@@ -13848,7 +18286,7 @@
         <v>41266</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>20</v>
       </c>
@@ -13910,7 +18348,7 @@
         <v>41022</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>20</v>
       </c>
@@ -13972,7 +18410,7 @@
         <v>41237</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>20</v>
       </c>
@@ -14034,7 +18472,7 @@
         <v>40937</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>20</v>
       </c>
@@ -14096,7 +18534,7 @@
         <v>41149</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>20</v>
       </c>
@@ -14158,7 +18596,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>20</v>
       </c>
@@ -14220,7 +18658,7 @@
         <v>40925</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>20</v>
       </c>
@@ -14282,7 +18720,7 @@
         <v>41047</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>19</v>
       </c>
@@ -14344,7 +18782,7 @@
         <v>41262</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>19</v>
       </c>
@@ -14406,7 +18844,7 @@
         <v>40962</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>19</v>
       </c>
@@ -14468,7 +18906,7 @@
         <v>41174</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>19</v>
       </c>
@@ -14530,7 +18968,7 @@
         <v>41114</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>19</v>
       </c>
@@ -14592,7 +19030,7 @@
         <v>39491</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>19</v>
       </c>
@@ -14654,7 +19092,7 @@
         <v>40106</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>18</v>
       </c>
@@ -14716,7 +19154,7 @@
         <v>40657</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>18</v>
       </c>
@@ -14778,7 +19216,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>18</v>
       </c>
@@ -14840,7 +19278,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>18</v>
       </c>
@@ -14902,7 +19340,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>18</v>
       </c>
@@ -14964,7 +19402,7 @@
         <v>40559</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>18</v>
       </c>
@@ -15026,7 +19464,7 @@
         <v>40761</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>18</v>
       </c>
@@ -15088,7 +19526,7 @@
         <v>40732</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>18</v>
       </c>
@@ -15150,7 +19588,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>18</v>
       </c>
@@ -15212,7 +19650,7 @@
         <v>40584</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>21</v>
       </c>
@@ -15274,7 +19712,7 @@
         <v>40786</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>21</v>
       </c>
@@ -15336,7 +19774,7 @@
         <v>40757</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>21</v>
       </c>
@@ -15398,7 +19836,7 @@
         <v>40669</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>21</v>
       </c>
@@ -15460,7 +19898,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>21</v>
       </c>
@@ -15522,7 +19960,7 @@
         <v>40811</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>21</v>
       </c>
@@ -15584,7 +20022,7 @@
         <v>40567</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>21</v>
       </c>
@@ -15646,7 +20084,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>22</v>
       </c>
@@ -15708,7 +20146,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>22</v>
       </c>
@@ -15770,7 +20208,7 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>22</v>
       </c>
@@ -15832,7 +20270,7 @@
         <v>40106</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>22</v>
       </c>
@@ -15894,7 +20332,7 @@
         <v>40592</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>22</v>
       </c>
@@ -15956,7 +20394,7 @@
         <v>40807</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>22</v>
       </c>
@@ -16018,7 +20456,7 @@
         <v>40719</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>23</v>
       </c>
@@ -16080,7 +20518,7 @@
         <v>40659</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>23</v>
       </c>
@@ -16142,7 +20580,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>23</v>
       </c>
@@ -16204,7 +20642,7 @@
         <v>40657</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>23</v>
       </c>
@@ -16266,7 +20704,7 @@
         <v>41087</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>24</v>
       </c>
@@ -16328,7 +20766,7 @@
         <v>40933</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>24</v>
       </c>
@@ -16390,7 +20828,7 @@
         <v>41239</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>24</v>
       </c>
@@ -16452,7 +20890,7 @@
         <v>41076</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>24</v>
       </c>
@@ -16514,7 +20952,7 @@
         <v>41197</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>24</v>
       </c>
@@ -16576,7 +21014,7 @@
         <v>40681</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>24</v>
       </c>
@@ -16638,7 +21076,7 @@
         <v>41112</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>25</v>
       </c>
@@ -16700,7 +21138,7 @@
         <v>40958</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>25</v>
       </c>
@@ -16762,7 +21200,7 @@
         <v>41264</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>25</v>
       </c>
@@ -16824,7 +21262,7 @@
         <v>40735</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>26</v>
       </c>
@@ -16886,7 +21324,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>26</v>
       </c>
@@ -16948,7 +21386,7 @@
         <v>40706</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>27</v>
       </c>
@@ -17010,7 +21448,7 @@
         <v>41137</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>27</v>
       </c>
@@ -17072,7 +21510,7 @@
         <v>40618</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>27</v>
       </c>
@@ -17134,7 +21572,7 @@
         <v>40558</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>27</v>
       </c>
@@ -17196,7 +21634,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>27</v>
       </c>
@@ -17258,7 +21696,7 @@
         <v>41247</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>28</v>
       </c>
@@ -17320,7 +21758,7 @@
         <v>40731</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>28</v>
       </c>
@@ -17940,7 +22378,7 @@
         <v>40756</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>30</v>
       </c>
@@ -18002,7 +22440,7 @@
         <v>40567</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>30</v>
       </c>
@@ -18064,7 +22502,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>30</v>
       </c>
@@ -18126,7 +22564,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>30</v>
       </c>
@@ -18188,7 +22626,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>30</v>
       </c>
@@ -18250,7 +22688,7 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>30</v>
       </c>
@@ -18312,7 +22750,7 @@
         <v>40836</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>31</v>
       </c>
@@ -18374,7 +22812,7 @@
         <v>40592</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>31</v>
       </c>
@@ -18436,7 +22874,7 @@
         <v>40807</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>31</v>
       </c>
@@ -18498,7 +22936,7 @@
         <v>41237</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>31</v>
       </c>
@@ -18560,7 +22998,7 @@
         <v>40719</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>31</v>
       </c>
@@ -18622,7 +23060,7 @@
         <v>40659</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>31</v>
       </c>
@@ -18685,20 +23123,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="65" priority="2" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="49" priority="2" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="POOR">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="POOR">
       <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -18708,7 +23148,7 @@
   <dimension ref="A1:Z156"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I159" sqref="I159"/>
+      <selection activeCell="J160" sqref="J160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18798,7 +23238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -18860,7 +23300,7 @@
         <v>40941</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -18922,7 +23362,7 @@
         <v>40697</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -18984,7 +23424,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -19048,7 +23488,7 @@
       <c r="U5" s="1"/>
       <c r="W5" s="13"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -19111,7 +23551,7 @@
       </c>
       <c r="W6" s="13"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -19174,7 +23614,7 @@
       </c>
       <c r="W7" s="13"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -19237,7 +23677,7 @@
       </c>
       <c r="W8" s="13"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -19300,7 +23740,7 @@
       </c>
       <c r="W9" s="13"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -19363,7 +23803,7 @@
       </c>
       <c r="W10" s="13"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -19426,7 +23866,7 @@
       </c>
       <c r="W11" s="13"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -19489,7 +23929,7 @@
       </c>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -19552,7 +23992,7 @@
       </c>
       <c r="W13" s="13"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -19614,7 +24054,7 @@
         <v>40747</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -19676,7 +24116,7 @@
         <v>40962</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -19739,7 +24179,7 @@
       </c>
       <c r="V16" s="13"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -19801,7 +24241,7 @@
         <v>40874</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -19863,7 +24303,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -19925,7 +24365,7 @@
         <v>41016</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -19987,7 +24427,7 @@
         <v>40772</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -20050,11 +24490,8 @@
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -20119,7 +24556,7 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -20181,7 +24618,7 @@
         <v>40899</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -20243,7 +24680,7 @@
         <v>40839</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -20305,7 +24742,7 @@
         <v>41041</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -20367,7 +24804,7 @@
         <v>40797</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -20429,7 +24866,7 @@
         <v>41012</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -20491,7 +24928,7 @@
         <v>40712</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -20553,7 +24990,7 @@
         <v>40924</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -20615,7 +25052,7 @@
         <v>40864</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -20677,7 +25114,7 @@
         <v>41066</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -20739,7 +25176,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -20801,7 +25238,7 @@
         <v>41037</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -20863,7 +25300,7 @@
         <v>40949</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -20925,7 +25362,7 @@
         <v>40889</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>9</v>
       </c>
@@ -20987,7 +25424,7 @@
         <v>41091</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
@@ -21049,7 +25486,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
@@ -21111,7 +25548,7 @@
         <v>41062</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
@@ -21173,7 +25610,7 @@
         <v>40762</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
@@ -21235,7 +25672,7 @@
         <v>40974</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>9</v>
       </c>
@@ -21297,7 +25734,7 @@
         <v>40914</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
@@ -21359,7 +25796,7 @@
         <v>41116</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>9</v>
       </c>
@@ -21421,7 +25858,7 @@
         <v>40872</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
@@ -21483,7 +25920,7 @@
         <v>41087</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>9</v>
       </c>
@@ -21545,7 +25982,7 @@
         <v>40787</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
@@ -21607,7 +26044,7 @@
         <v>40999</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
@@ -21669,7 +26106,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>10</v>
       </c>
@@ -21731,7 +26168,7 @@
         <v>41141</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
@@ -21793,7 +26230,7 @@
         <v>40897</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
@@ -21855,7 +26292,7 @@
         <v>41112</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
@@ -21917,7 +26354,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>10</v>
       </c>
@@ -21979,7 +26416,7 @@
         <v>41024</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>10</v>
       </c>
@@ -22041,7 +26478,7 @@
         <v>40964</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>10</v>
       </c>
@@ -22103,7 +26540,7 @@
         <v>41166</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>10</v>
       </c>
@@ -22165,7 +26602,7 @@
         <v>40922</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>10</v>
       </c>
@@ -22227,7 +26664,7 @@
         <v>41137</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>11</v>
       </c>
@@ -22289,7 +26726,7 @@
         <v>40837</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>11</v>
       </c>
@@ -22351,7 +26788,7 @@
         <v>41049</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>11</v>
       </c>
@@ -22413,7 +26850,7 @@
         <v>40989</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>11</v>
       </c>
@@ -22475,7 +26912,7 @@
         <v>41191</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>11</v>
       </c>
@@ -22537,7 +26974,7 @@
         <v>40947</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>12</v>
       </c>
@@ -22599,7 +27036,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
@@ -22661,7 +27098,7 @@
         <v>40862</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>12</v>
       </c>
@@ -22723,7 +27160,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>13</v>
       </c>
@@ -22785,7 +27222,7 @@
         <v>41014</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>14</v>
       </c>
@@ -22847,7 +27284,7 @@
         <v>41216</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>15</v>
       </c>
@@ -22909,7 +27346,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>15</v>
       </c>
@@ -22971,7 +27408,7 @@
         <v>41187</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
@@ -23033,7 +27470,7 @@
         <v>40887</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>16</v>
       </c>
@@ -23095,7 +27532,7 @@
         <v>41099</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>16</v>
       </c>
@@ -23157,7 +27594,7 @@
         <v>41039</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>16</v>
       </c>
@@ -23219,7 +27656,7 @@
         <v>41241</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>16</v>
       </c>
@@ -23281,7 +27718,7 @@
         <v>40997</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>16</v>
       </c>
@@ -23343,7 +27780,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>16</v>
       </c>
@@ -23405,7 +27842,7 @@
         <v>40912</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>17</v>
       </c>
@@ -23467,7 +27904,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>17</v>
       </c>
@@ -23529,7 +27966,7 @@
         <v>41064</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>17</v>
       </c>
@@ -23591,7 +28028,7 @@
         <v>41266</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>20</v>
       </c>
@@ -23653,7 +28090,7 @@
         <v>41022</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>20</v>
       </c>
@@ -23715,7 +28152,7 @@
         <v>41237</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>20</v>
       </c>
@@ -23777,7 +28214,7 @@
         <v>40937</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>20</v>
       </c>
@@ -23839,7 +28276,7 @@
         <v>41149</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>20</v>
       </c>
@@ -23901,7 +28338,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>20</v>
       </c>
@@ -23963,7 +28400,7 @@
         <v>40925</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>20</v>
       </c>
@@ -24025,7 +28462,7 @@
         <v>41047</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>19</v>
       </c>
@@ -24087,7 +28524,7 @@
         <v>41262</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>19</v>
       </c>
@@ -24149,7 +28586,7 @@
         <v>40962</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>19</v>
       </c>
@@ -24211,7 +28648,7 @@
         <v>41174</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>19</v>
       </c>
@@ -24273,7 +28710,7 @@
         <v>41114</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>19</v>
       </c>
@@ -24335,7 +28772,7 @@
         <v>39491</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>19</v>
       </c>
@@ -24397,7 +28834,7 @@
         <v>40106</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>18</v>
       </c>
@@ -24459,7 +28896,7 @@
         <v>40657</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>18</v>
       </c>
@@ -24521,7 +28958,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>18</v>
       </c>
@@ -24583,7 +29020,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>18</v>
       </c>
@@ -24645,7 +29082,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>18</v>
       </c>
@@ -24707,7 +29144,7 @@
         <v>40559</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>18</v>
       </c>
@@ -24769,7 +29206,7 @@
         <v>40761</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>18</v>
       </c>
@@ -24831,7 +29268,7 @@
         <v>40732</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>18</v>
       </c>
@@ -24893,7 +29330,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>18</v>
       </c>
@@ -24955,7 +29392,7 @@
         <v>40584</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>21</v>
       </c>
@@ -25017,7 +29454,7 @@
         <v>40786</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>21</v>
       </c>
@@ -25079,7 +29516,7 @@
         <v>40757</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>21</v>
       </c>
@@ -25141,7 +29578,7 @@
         <v>40669</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>21</v>
       </c>
@@ -25203,7 +29640,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>21</v>
       </c>
@@ -25265,7 +29702,7 @@
         <v>40811</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>21</v>
       </c>
@@ -25327,7 +29764,7 @@
         <v>40567</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>21</v>
       </c>
@@ -25389,7 +29826,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>22</v>
       </c>
@@ -25451,7 +29888,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>22</v>
       </c>
@@ -25513,7 +29950,7 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>22</v>
       </c>
@@ -25575,7 +30012,7 @@
         <v>40106</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>22</v>
       </c>
@@ -25637,7 +30074,7 @@
         <v>40592</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>22</v>
       </c>
@@ -25699,7 +30136,7 @@
         <v>40807</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>22</v>
       </c>
@@ -25761,7 +30198,7 @@
         <v>40719</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>23</v>
       </c>
@@ -25823,7 +30260,7 @@
         <v>40659</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>23</v>
       </c>
@@ -25885,7 +30322,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>23</v>
       </c>
@@ -25947,7 +30384,7 @@
         <v>40657</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>23</v>
       </c>
@@ -26009,7 +30446,7 @@
         <v>41087</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>24</v>
       </c>
@@ -26071,7 +30508,7 @@
         <v>40933</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>24</v>
       </c>
@@ -26133,7 +30570,7 @@
         <v>41239</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>24</v>
       </c>
@@ -26195,7 +30632,7 @@
         <v>41076</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>24</v>
       </c>
@@ -26257,7 +30694,7 @@
         <v>41197</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>24</v>
       </c>
@@ -26319,7 +30756,7 @@
         <v>40681</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>24</v>
       </c>
@@ -26381,7 +30818,7 @@
         <v>41112</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>25</v>
       </c>
@@ -26443,7 +30880,7 @@
         <v>40958</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>25</v>
       </c>
@@ -26505,7 +30942,7 @@
         <v>41264</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>25</v>
       </c>
@@ -26567,7 +31004,7 @@
         <v>40735</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>26</v>
       </c>
@@ -26629,7 +31066,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>26</v>
       </c>
@@ -26691,7 +31128,7 @@
         <v>40706</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>27</v>
       </c>
@@ -26753,7 +31190,7 @@
         <v>41137</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>27</v>
       </c>
@@ -26815,7 +31252,7 @@
         <v>40618</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>27</v>
       </c>
@@ -26877,7 +31314,7 @@
         <v>40558</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>27</v>
       </c>
@@ -26939,7 +31376,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>27</v>
       </c>
@@ -27001,7 +31438,7 @@
         <v>41247</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>28</v>
       </c>
@@ -27063,7 +31500,7 @@
         <v>40731</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>28</v>
       </c>
@@ -27683,7 +32120,7 @@
         <v>40811</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>30</v>
       </c>
@@ -27745,7 +32182,7 @@
         <v>40567</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>30</v>
       </c>
@@ -27807,7 +32244,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>30</v>
       </c>
@@ -27869,7 +32306,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>30</v>
       </c>
@@ -27931,7 +32368,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>30</v>
       </c>
@@ -27993,7 +32430,7 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>30</v>
       </c>
@@ -28055,7 +32492,7 @@
         <v>40836</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>31</v>
       </c>
@@ -28117,7 +32554,7 @@
         <v>40592</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>31</v>
       </c>
@@ -28179,7 +32616,7 @@
         <v>40807</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>31</v>
       </c>
@@ -28241,7 +32678,7 @@
         <v>41237</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>31</v>
       </c>
@@ -28303,7 +32740,7 @@
         <v>40719</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>31</v>
       </c>
@@ -28365,7 +32802,7 @@
         <v>40659</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>31</v>
       </c>
@@ -28429,19 +32866,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H156">
-    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H156">
-    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="POOR">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="POOR">
       <formula>NOT(ISERROR(SEARCH("POOR",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -28450,7 +32888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -29794,9 +34232,6 @@
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -38173,12 +42608,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="POOR">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="POOR">
       <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3_Data Visualization and Dashboards with Excel and Cognos/w1_VisualisingDataUsingSpreadsheet/Car_Sales_Kaggle_DV0130EN_Lab1_Start.xlsx
+++ b/3_Data Visualization and Dashboards with Excel and Cognos/w1_VisualisingDataUsingSpreadsheet/Car_Sales_Kaggle_DV0130EN_Lab1_Start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheldonnnn/Documents/一些学习笔记/IBMDA/3_Data Visualization and Dashboards with Excel and Cognos/w1_VisualisingDataUsingSpreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9245F6CC-FE4D-4945-9A67-4D92EF347166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D67DDBD-579B-E74D-BC05-F094400A8368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line Chart" sheetId="5" r:id="rId1"/>
@@ -19,35 +19,6 @@
     <sheet name="Column Chart" sheetId="4" r:id="rId4"/>
     <sheet name="Car_sales" sheetId="1" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Area Chart'!$C$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Area Chart'!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Area Chart'!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Area Chart'!$C$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Area Chart'!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Area Chart'!$C$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Area Chart'!$C$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Area Chart'!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Area Chart'!$C$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Area Chart'!$C$2:$C$156</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Area Chart'!$B$2:$B$156</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="1" r:id="rId6"/>
@@ -728,10 +699,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1254,19 +1225,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="32" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="12" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1316,7 +1287,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="117">
+  <dxfs count="79">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -1336,118 +1307,16 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1510,19 +1379,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1807,7 +1664,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1826,7 +1683,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1918,7 +1775,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2192,7 +2049,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2211,7 +2068,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2328,7 +2185,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="169" formatCode="m/d/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2613,7 +2470,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2632,7 +2489,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2724,16 +2581,16 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -7627,7 +7484,7 @@
         <n v="18969"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Price" numFmtId="166">
+    <cacheField name="Price" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9235" maxValue="85500" count="152">
         <n v="21500"/>
         <n v="28400"/>
@@ -7783,7 +7640,7 @@
         <n v="36000"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Year Resale Value" numFmtId="166">
+    <cacheField name="Year Resale Value" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5160" maxValue="67550"/>
     </cacheField>
     <cacheField name="Retention %" numFmtId="9">
@@ -11463,7 +11320,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="166" showAll="0">
+    <pivotField numFmtId="165" showAll="0">
       <items count="153">
         <item x="25"/>
         <item x="59"/>
@@ -11620,7 +11477,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField dataField="1" numFmtId="9" showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
@@ -11682,7 +11539,7 @@
     <dataField name="Average of Retention %" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="116">
+    <format dxfId="78">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -11694,10 +11551,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="77">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -12116,7 +11973,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="166" showAll="0">
+    <pivotField dataField="1" numFmtId="165" showAll="0">
       <items count="153">
         <item x="25"/>
         <item x="59"/>
@@ -12273,7 +12130,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
     <pivotField numFmtId="9" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -12340,11 +12197,11 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Average of Year Resale Value" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="168"/>
-    <dataField name="Average of Price" fld="4" subtotal="average" baseField="0" baseItem="78" numFmtId="168"/>
+    <dataField name="Average of Year Resale Value" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="167"/>
+    <dataField name="Average of Price" fld="4" subtotal="average" baseField="0" baseItem="78" numFmtId="167"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="113">
+    <format dxfId="75">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12353,7 +12210,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="112">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12362,7 +12219,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="111">
+    <format dxfId="73">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12371,7 +12228,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="110">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12537,7 +12394,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D2600A8-6634-4642-AAD2-0860E46FD306}" name="Table14" displayName="Table14" ref="A1:S156" totalsRowShown="0" headerRowDxfId="109" headerRowCellStyle="60% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D2600A8-6634-4642-AAD2-0860E46FD306}" name="Table14" displayName="Table14" ref="A1:S156" totalsRowShown="0" headerRowDxfId="71" headerRowCellStyle="60% - Accent1">
   <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}">
     <filterColumn colId="0">
       <filters>
@@ -12549,38 +12406,38 @@
     <sortCondition ref="B1:B156"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{CCFD9DCD-33DA-4C1C-B39D-1F8C0CA940C0}" name="Manufacturer" dataDxfId="108" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{91732ACF-B59B-4736-A06E-BE7ADB4669C2}" name="Model" dataDxfId="107" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{AC38EB39-9FE7-4815-9A95-BD4739621249}" name="Unit Sales" dataDxfId="106"/>
-    <tableColumn id="5" xr3:uid="{48155666-2FFE-4435-98FA-77A71F62A4CD}" name="Price" dataDxfId="105"/>
-    <tableColumn id="6" xr3:uid="{E6C9B305-43C4-4AA9-AF99-52F226A2A489}" name="Year Resale Value" dataDxfId="104"/>
-    <tableColumn id="7" xr3:uid="{53AB75B2-B4C7-4B08-A310-E333B5D08F1E}" name="Retention %" dataDxfId="103">
+    <tableColumn id="2" xr3:uid="{CCFD9DCD-33DA-4C1C-B39D-1F8C0CA940C0}" name="Manufacturer" dataDxfId="70" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{91732ACF-B59B-4736-A06E-BE7ADB4669C2}" name="Model" dataDxfId="69" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{AC38EB39-9FE7-4815-9A95-BD4739621249}" name="Unit Sales" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{48155666-2FFE-4435-98FA-77A71F62A4CD}" name="Price" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{E6C9B305-43C4-4AA9-AF99-52F226A2A489}" name="Year Resale Value" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{53AB75B2-B4C7-4B08-A310-E333B5D08F1E}" name="Retention %" dataDxfId="65">
       <calculatedColumnFormula>SUM(E2/D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14C0ED08-C800-44FC-AEFF-AD4CB3BA4CE3}" name="Retention Value" dataDxfId="102">
+    <tableColumn id="8" xr3:uid="{14C0ED08-C800-44FC-AEFF-AD4CB3BA4CE3}" name="Retention Value" dataDxfId="64">
       <calculatedColumnFormula>IF(F2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2D1C7A45-6CF4-4F66-812C-40A50CEEFE3C}" name="Engine Size" dataDxfId="101"/>
-    <tableColumn id="10" xr3:uid="{6F868495-C5F3-4EB0-A931-7DB5EE263B04}" name="Horsepower" dataDxfId="100"/>
-    <tableColumn id="11" xr3:uid="{21D8283C-331B-4FBC-ADCB-511EC8FEEA5B}" name="HP Level" dataDxfId="99">
+    <tableColumn id="9" xr3:uid="{2D1C7A45-6CF4-4F66-812C-40A50CEEFE3C}" name="Engine Size" dataDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{6F868495-C5F3-4EB0-A931-7DB5EE263B04}" name="Horsepower" dataDxfId="62"/>
+    <tableColumn id="11" xr3:uid="{21D8283C-331B-4FBC-ADCB-511EC8FEEA5B}" name="HP Level" dataDxfId="61">
       <calculatedColumnFormula array="1">_xlfn.IFS(I2&gt;299,"High HP",I2&gt;99,"Medium HP",I2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D8DD2294-3DBB-4222-BDE1-25B41E8C6E23}" name="Vehicle_type" dataDxfId="98"/>
-    <tableColumn id="17" xr3:uid="{41974CDD-17C2-4811-8CA1-4FE62EF36874}" name="Fuel Efficiency" dataDxfId="97"/>
-    <tableColumn id="19" xr3:uid="{FF974689-EC10-4BD7-931E-F6D2FC8A04BB}" name="Power Perf Factor" dataDxfId="96"/>
-    <tableColumn id="16" xr3:uid="{A47D6D7B-55BF-4939-8425-7A7DC0E408AE}" name="Fuel Capacity" dataDxfId="95"/>
-    <tableColumn id="12" xr3:uid="{59E0B2CA-E73A-4CDD-A62F-F1A4C75E90F7}" name="Wheelbase" dataDxfId="94"/>
-    <tableColumn id="13" xr3:uid="{1318511A-327E-4603-9CFA-8A67BC21BEB8}" name="Width" dataDxfId="93"/>
-    <tableColumn id="14" xr3:uid="{B48108FE-8EF4-43AB-ACEA-F7B30A9D3C55}" name="Length" dataDxfId="92"/>
-    <tableColumn id="15" xr3:uid="{1C70CD07-6AE4-4D29-95C6-1D02DF8772F3}" name="Curb Weight" dataDxfId="91"/>
-    <tableColumn id="18" xr3:uid="{801588FA-173B-403F-BAF7-D1F66FFF62EA}" name="Latest Launch" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{D8DD2294-3DBB-4222-BDE1-25B41E8C6E23}" name="Vehicle_type" dataDxfId="60"/>
+    <tableColumn id="17" xr3:uid="{41974CDD-17C2-4811-8CA1-4FE62EF36874}" name="Fuel Efficiency" dataDxfId="59"/>
+    <tableColumn id="19" xr3:uid="{FF974689-EC10-4BD7-931E-F6D2FC8A04BB}" name="Power Perf Factor" dataDxfId="58"/>
+    <tableColumn id="16" xr3:uid="{A47D6D7B-55BF-4939-8425-7A7DC0E408AE}" name="Fuel Capacity" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{59E0B2CA-E73A-4CDD-A62F-F1A4C75E90F7}" name="Wheelbase" dataDxfId="56"/>
+    <tableColumn id="13" xr3:uid="{1318511A-327E-4603-9CFA-8A67BC21BEB8}" name="Width" dataDxfId="55"/>
+    <tableColumn id="14" xr3:uid="{B48108FE-8EF4-43AB-ACEA-F7B30A9D3C55}" name="Length" dataDxfId="54"/>
+    <tableColumn id="15" xr3:uid="{1C70CD07-6AE4-4D29-95C6-1D02DF8772F3}" name="Curb Weight" dataDxfId="53"/>
+    <tableColumn id="18" xr3:uid="{801588FA-173B-403F-BAF7-D1F66FFF62EA}" name="Latest Launch" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9BA20E7-01BD-4CE5-A39A-A378DD819ED1}" name="Table15" displayName="Table15" ref="A1:S156" totalsRowShown="0" headerRowDxfId="89" headerRowCellStyle="60% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9BA20E7-01BD-4CE5-A39A-A378DD819ED1}" name="Table15" displayName="Table15" ref="A1:S156" totalsRowShown="0" headerRowDxfId="51" headerRowCellStyle="60% - Accent1">
   <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}">
     <filterColumn colId="0">
       <filters>
@@ -12589,65 +12446,65 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{5BFF9CA1-D18F-48F8-B139-C94FCAB0E175}" name="Manufacturer" dataDxfId="88" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{43B3A4A3-6CC5-4B1F-9BA5-697A4F09A487}" name="Model" dataDxfId="87" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="19" xr3:uid="{5B90FD03-F436-4395-9630-5BC3AE66755A}" name="Power Perf Factor" dataDxfId="86" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{2F98F040-7842-4713-AEFE-12CD948B81ED}" name="Unit Sales" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{6A58B398-9B8D-495F-8939-B398B67C09F9}" name="Price" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{CFBD5404-82BE-457B-8590-AD11A6B7EF8F}" name="Year Resale Value" dataDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{7684E2FD-1B7C-4F58-8E02-AB765C88FB13}" name="Retention %" dataDxfId="82">
+    <tableColumn id="2" xr3:uid="{5BFF9CA1-D18F-48F8-B139-C94FCAB0E175}" name="Manufacturer" dataDxfId="50" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{43B3A4A3-6CC5-4B1F-9BA5-697A4F09A487}" name="Model" dataDxfId="49" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="19" xr3:uid="{5B90FD03-F436-4395-9630-5BC3AE66755A}" name="Power Perf Factor" dataDxfId="48" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{2F98F040-7842-4713-AEFE-12CD948B81ED}" name="Unit Sales" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{6A58B398-9B8D-495F-8939-B398B67C09F9}" name="Price" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{CFBD5404-82BE-457B-8590-AD11A6B7EF8F}" name="Year Resale Value" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{7684E2FD-1B7C-4F58-8E02-AB765C88FB13}" name="Retention %" dataDxfId="44">
       <calculatedColumnFormula>SUM(F2/E2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4F26BE56-C2D9-44F3-86FD-D2945E0358C0}" name="Retention Value" dataDxfId="81">
+    <tableColumn id="8" xr3:uid="{4F26BE56-C2D9-44F3-86FD-D2945E0358C0}" name="Retention Value" dataDxfId="43">
       <calculatedColumnFormula>IF(G2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E2821A61-E719-4923-891A-BCFDE42F66D0}" name="Engine Size" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{16623E42-D7B5-47C4-B7B5-265380D2ACB5}" name="Horsepower" dataDxfId="79"/>
-    <tableColumn id="11" xr3:uid="{D6BC5B95-B4B5-4D2C-B442-659931E923AB}" name="HP Level" dataDxfId="78">
+    <tableColumn id="9" xr3:uid="{E2821A61-E719-4923-891A-BCFDE42F66D0}" name="Engine Size" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{16623E42-D7B5-47C4-B7B5-265380D2ACB5}" name="Horsepower" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{D6BC5B95-B4B5-4D2C-B442-659931E923AB}" name="HP Level" dataDxfId="40">
       <calculatedColumnFormula array="1">_xlfn.IFS(J2&gt;299,"High HP",J2&gt;99,"Medium HP",J2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D89FC93A-602D-4147-B5D8-052BD3AAEFA9}" name="Vehicle_type" dataDxfId="77"/>
-    <tableColumn id="17" xr3:uid="{09BC724F-FE73-4569-B3C5-F0F8A6DB4C85}" name="Fuel Efficiency" dataDxfId="76" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="12" xr3:uid="{55924A29-F156-4CD0-8425-CED32C98068B}" name="Wheelbase" dataDxfId="75"/>
-    <tableColumn id="13" xr3:uid="{56DEB4B4-962C-464A-8CF0-5AF892D29D15}" name="Width" dataDxfId="74"/>
-    <tableColumn id="14" xr3:uid="{1EDAA041-E793-4BBE-B154-A3806B225DA4}" name="Length" dataDxfId="73"/>
-    <tableColumn id="15" xr3:uid="{8B517A00-9F46-45B8-851E-0C41E81C7F5A}" name="Curb Weight" dataDxfId="72"/>
-    <tableColumn id="16" xr3:uid="{C0D2D5B9-1522-4D17-A522-05AF3FA10469}" name="Fuel Capacity" dataDxfId="71"/>
-    <tableColumn id="18" xr3:uid="{8890314F-1652-4E10-ABA4-284B9415484A}" name="Latest Launch" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{D89FC93A-602D-4147-B5D8-052BD3AAEFA9}" name="Vehicle_type" dataDxfId="39"/>
+    <tableColumn id="17" xr3:uid="{09BC724F-FE73-4569-B3C5-F0F8A6DB4C85}" name="Fuel Efficiency" dataDxfId="38" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="12" xr3:uid="{55924A29-F156-4CD0-8425-CED32C98068B}" name="Wheelbase" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{56DEB4B4-962C-464A-8CF0-5AF892D29D15}" name="Width" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{1EDAA041-E793-4BBE-B154-A3806B225DA4}" name="Length" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{8B517A00-9F46-45B8-851E-0C41E81C7F5A}" name="Curb Weight" dataDxfId="34"/>
+    <tableColumn id="16" xr3:uid="{C0D2D5B9-1522-4D17-A522-05AF3FA10469}" name="Fuel Capacity" dataDxfId="33"/>
+    <tableColumn id="18" xr3:uid="{8890314F-1652-4E10-ABA4-284B9415484A}" name="Latest Launch" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597DCCBB-1D00-4B74-A561-F0C0BDE98FA1}" name="Table1" displayName="Table1" ref="A1:S156" totalsRowShown="0" headerRowDxfId="69" headerRowCellStyle="60% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597DCCBB-1D00-4B74-A561-F0C0BDE98FA1}" name="Table1" displayName="Table1" ref="A1:S156" totalsRowShown="0" headerRowDxfId="31" headerRowCellStyle="60% - Accent1">
   <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}"/>
   <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{0090DD31-AAEF-418B-A6D5-5A47F973884A}" name="Manufacturer" dataDxfId="68" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{1D457C4B-D2B8-4760-9FBD-20980339C812}" name="Model" dataDxfId="67" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{8522711B-6353-4D72-9921-4036DEB24699}" name="Unit Sales" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{3F2EFF05-CEC1-43C4-8457-EC0A04BFE37D}" name="Price" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{D0C7E9A3-6A78-4834-995F-71A07F7E5FEC}" name="Year Resale Value" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{2892AE5C-2583-41F9-9297-9EA4C2895B5F}" name="Retention %" dataDxfId="63">
+    <tableColumn id="2" xr3:uid="{0090DD31-AAEF-418B-A6D5-5A47F973884A}" name="Manufacturer" dataDxfId="30" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{1D457C4B-D2B8-4760-9FBD-20980339C812}" name="Model" dataDxfId="29" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{8522711B-6353-4D72-9921-4036DEB24699}" name="Unit Sales" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{3F2EFF05-CEC1-43C4-8457-EC0A04BFE37D}" name="Price" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{D0C7E9A3-6A78-4834-995F-71A07F7E5FEC}" name="Year Resale Value" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{2892AE5C-2583-41F9-9297-9EA4C2895B5F}" name="Retention %" dataDxfId="25">
       <calculatedColumnFormula>SUM(E2/D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{40A7E790-705B-474C-BD5E-B93CFDEAAD37}" name="Retention Value" dataDxfId="62">
+    <tableColumn id="8" xr3:uid="{40A7E790-705B-474C-BD5E-B93CFDEAAD37}" name="Retention Value" dataDxfId="24">
       <calculatedColumnFormula>IF(F2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9FD1D782-0EB9-4AC8-9FB6-1F5437BC6100}" name="Engine Size" dataDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{97F7DE8D-9589-426B-AA4F-2E3F8BB7A81B}" name="Horsepower" dataDxfId="60"/>
-    <tableColumn id="11" xr3:uid="{4CB9C68E-A6F1-497A-9877-E41495059145}" name="HP Level" dataDxfId="59">
+    <tableColumn id="9" xr3:uid="{9FD1D782-0EB9-4AC8-9FB6-1F5437BC6100}" name="Engine Size" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{97F7DE8D-9589-426B-AA4F-2E3F8BB7A81B}" name="Horsepower" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{4CB9C68E-A6F1-497A-9877-E41495059145}" name="HP Level" dataDxfId="21">
       <calculatedColumnFormula array="1">_xlfn.IFS(I2&gt;299,"High HP",I2&gt;99,"Medium HP",I2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3733B2DD-D65D-439A-9EC2-28F65DC369D7}" name="Vehicle_type" dataDxfId="58"/>
-    <tableColumn id="17" xr3:uid="{5136D0F0-2F8F-4D70-995F-CE39B1996127}" name="Fuel Efficiency" dataDxfId="57"/>
-    <tableColumn id="19" xr3:uid="{5F133F36-F1C6-453A-A10C-A9917A623804}" name="Power Perf Factor" dataDxfId="56"/>
-    <tableColumn id="12" xr3:uid="{6E551230-1170-40DA-8649-BDDA922271D8}" name="Wheelbase" dataDxfId="55"/>
-    <tableColumn id="13" xr3:uid="{53A36FF3-E823-43B4-958B-9E02EC2B56F7}" name="Width" dataDxfId="54"/>
-    <tableColumn id="14" xr3:uid="{0728B768-EB40-4E54-9F8B-8FC310D3272C}" name="Length" dataDxfId="53"/>
-    <tableColumn id="15" xr3:uid="{2264EB11-0818-4B2A-A027-42B066FA9869}" name="Curb Weight" dataDxfId="52"/>
-    <tableColumn id="16" xr3:uid="{58B24934-BE7E-4FBD-9F96-CEF0725C6117}" name="Fuel Capacity" dataDxfId="51"/>
-    <tableColumn id="18" xr3:uid="{00FF364F-DDBE-4E2C-8F3E-DBDA321FA22A}" name="Latest Launch" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{3733B2DD-D65D-439A-9EC2-28F65DC369D7}" name="Vehicle_type" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{5136D0F0-2F8F-4D70-995F-CE39B1996127}" name="Fuel Efficiency" dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{5F133F36-F1C6-453A-A10C-A9917A623804}" name="Power Perf Factor" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{6E551230-1170-40DA-8649-BDDA922271D8}" name="Wheelbase" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{53A36FF3-E823-43B4-958B-9E02EC2B56F7}" name="Width" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{0728B768-EB40-4E54-9F8B-8FC310D3272C}" name="Length" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{2264EB11-0818-4B2A-A027-42B066FA9869}" name="Curb Weight" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{58B24934-BE7E-4FBD-9F96-CEF0725C6117}" name="Fuel Capacity" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{00FF364F-DDBE-4E2C-8F3E-DBDA321FA22A}" name="Latest Launch" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12952,8 +12809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6CD20E-85BF-DD42-9BB1-E7FFA14C0980}">
   <dimension ref="A3:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23125,13 +22982,11 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="49" priority="2" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="POOR">
+      <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="POOR">
-      <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32866,13 +32721,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H156">
-    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="POOR">
+      <formula>NOT(ISERROR(SEARCH("POOR",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",H2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H156">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="POOR">
-      <formula>NOT(ISERROR(SEARCH("POOR",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32888,8 +32741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z156"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -42608,13 +42461,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="POOR">
+      <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="POOR">
-      <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
